--- a/内部設計/D-4_ファイル構成一覧表.xlsx
+++ b/内部設計/D-4_ファイル構成一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81D276E-E997-4155-8096-9711756D550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F3641-1D77-4B0D-9D4E-75F8B8D1476E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Users.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面用</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -109,16 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -323,45 +309,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Questions.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Question関連のデータ操作モデル</t>
-    <rPh sb="8" eb="10">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Answers.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Answers関連のデータ操作モデル</t>
-    <rPh sb="7" eb="9">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Template.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Template関連のデータ操作モデル</t>
-    <rPh sb="8" eb="10">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウサ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -603,6 +551,61 @@
   </si>
   <si>
     <t>フッターjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User1行分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Question1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="9" eb="10">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Template1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="9" eb="10">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1008,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1056,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -1072,10 +1075,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1091,10 +1094,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1110,10 +1113,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1129,10 +1132,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1148,10 +1151,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1167,10 +1170,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1186,10 +1189,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1205,10 +1208,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1227,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1243,10 +1246,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1262,10 +1265,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1281,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1300,10 +1303,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1319,10 +1322,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1338,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1357,10 +1360,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1369,16 +1372,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1387,16 +1390,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1405,16 +1408,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1424,16 +1427,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1443,16 +1446,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1462,16 +1465,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1481,16 +1484,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1500,16 +1503,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1519,16 +1522,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1538,16 +1541,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1557,16 +1560,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1576,16 +1579,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1595,20 +1598,20 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1617,16 +1620,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1636,16 +1639,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1655,16 +1658,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1674,16 +1677,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1693,16 +1696,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1712,16 +1715,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1731,16 +1734,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1750,16 +1753,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1769,16 +1772,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1854,6 +1857,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2024,36 +2042,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2076,9 +2068,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/内部設計/D-4_ファイル構成一覧表.xlsx
+++ b/内部設計/D-4_ファイル構成一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F3641-1D77-4B0D-9D4E-75F8B8D1476E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A618A9-EFC8-4720-B411-0B6BDF50F86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -606,6 +606,49 @@
     <rPh sb="16" eb="17">
       <t>モ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト用</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QuestionsListDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問検索一覧のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QuestionList.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QuestionList1行分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result1行分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser1行分のデータを持つ、エンティティモデル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1009,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H49"/>
+  <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1065,7 +1108,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B41" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1216,26 +1259,26 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1246,15 +1289,15 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1265,34 +1308,34 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="E15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1300,18 +1343,18 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1319,18 +1362,18 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1341,15 +1384,15 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1360,164 +1403,167 @@
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="5">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="5">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -1528,15 +1574,15 @@
         <v>42</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1547,15 +1593,15 @@
         <v>42</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -1566,15 +1612,15 @@
         <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="1">
+      <c r="B31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -1585,29 +1631,29 @@
         <v>42</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>16</v>
+      <c r="C32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" t="s">
@@ -1615,40 +1661,40 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>78</v>
+      <c r="C33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>71</v>
+      <c r="C34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1657,17 +1703,17 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>77</v>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1676,17 +1722,17 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>76</v>
+      <c r="C36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1702,10 +1748,10 @@
         <v>61</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1721,10 +1767,10 @@
         <v>61</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1740,10 +1786,10 @@
         <v>61</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1759,10 +1805,10 @@
         <v>61</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1778,51 +1824,106 @@
         <v>61</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -1848,6 +1949,46 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1857,21 +1998,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2042,10 +2168,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2068,20 +2220,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>